--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Galp-Galr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Galp-Galr2.xlsx
@@ -546,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.2090106666666667</v>
+        <v>0.165415</v>
       </c>
       <c r="N2">
-        <v>0.6270319999999999</v>
+        <v>0.496245</v>
       </c>
       <c r="O2">
-        <v>0.07518114193487199</v>
+        <v>0.06044768156291203</v>
       </c>
       <c r="P2">
-        <v>0.07518114193487199</v>
+        <v>0.06044768156291203</v>
       </c>
       <c r="Q2">
-        <v>0.03576444220533333</v>
+        <v>0.028304656895</v>
       </c>
       <c r="R2">
-        <v>0.3218799798479999</v>
+        <v>0.254741912055</v>
       </c>
       <c r="S2">
-        <v>0.07518114193487199</v>
+        <v>0.06044768156291203</v>
       </c>
       <c r="T2">
-        <v>0.07518114193487199</v>
+        <v>0.06044768156291203</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>6.76737</v>
       </c>
       <c r="O3">
-        <v>0.8114077184191472</v>
+        <v>0.8243344049378915</v>
       </c>
       <c r="P3">
-        <v>0.8114077184191472</v>
+        <v>0.8243344049378915</v>
       </c>
       <c r="Q3">
         <v>0.3859949942699999</v>
@@ -632,10 +632,10 @@
         <v>3.47395494843</v>
       </c>
       <c r="S3">
-        <v>0.8114077184191472</v>
+        <v>0.8243344049378915</v>
       </c>
       <c r="T3">
-        <v>0.8114077184191472</v>
+        <v>0.8243344049378915</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -682,10 +682,10 @@
         <v>0.945881</v>
       </c>
       <c r="O4">
-        <v>0.1134111396459808</v>
+        <v>0.1152179134991965</v>
       </c>
       <c r="P4">
-        <v>0.1134111396459808</v>
+        <v>0.1152179134991965</v>
       </c>
       <c r="Q4">
         <v>0.05395084518433332</v>
@@ -694,10 +694,10 @@
         <v>0.485557606659</v>
       </c>
       <c r="S4">
-        <v>0.1134111396459808</v>
+        <v>0.1152179134991965</v>
       </c>
       <c r="T4">
-        <v>0.1134111396459808</v>
+        <v>0.1152179134991965</v>
       </c>
     </row>
   </sheetData>
